--- a/document/4. กลุ่มลูกค้าธุรกิจและภาครัฐ (1).xlsx
+++ b/document/4. กลุ่มลูกค้าธุรกิจและภาครัฐ (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simple\Desktop\directory\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worachit.pa\Desktop\directory\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43943CF2-FBCD-4F6D-B4E8-D5679FD2455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2BE342-8F29-47EC-8355-E76CCF3A015A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{C6E1CD40-5EDB-493E-916A-FB886CF4EFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="620" firstSheet="5" activeTab="7" xr2:uid="{C6E1CD40-5EDB-493E-916A-FB886CF4EFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="ฝ่ายขึ้นตรงกลุ่มลูกค้าธุรกิจ 1" sheetId="2" r:id="rId1"/>
@@ -1866,12 +1866,12 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="2"/>
+    <col min="1" max="16384" width="20.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -8744,12 +8744,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -12367,12 +12367,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -14931,12 +14931,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -17603,12 +17603,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -22163,12 +22163,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -27196,12 +27196,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -33233,13 +33233,13 @@
   <dimension ref="A1:T188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="11.4"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="16384" width="20.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
